--- a/替换词条模板.xlsx
+++ b/替换词条模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789">
   <si>
     <r>
       <rPr>
@@ -3739,6 +3739,12 @@
     </r>
   </si>
   <si>
+    <t>currentVersion</t>
+  </si>
+  <si>
+    <t>当前版本</t>
+  </si>
+  <si>
     <t>minute</t>
   </si>
   <si>
@@ -4831,6 +4837,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>账号</t>
     </r>
     <r>
@@ -5794,9 +5805,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -6027,12 +6038,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6051,18 +6056,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6070,12 +6063,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6105,12 +6092,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6123,19 +6104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6159,19 +6128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6184,6 +6141,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6207,7 +6182,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6341,10 +6352,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6353,16 +6364,16 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6374,10 +6385,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6398,28 +6409,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6428,58 +6439,58 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6833,10 +6844,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E469"/>
+  <dimension ref="A1:E470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A375" workbookViewId="0">
-      <selection activeCell="A399" sqref="$A399:$XFD399"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="A270" sqref="$A270:$XFD270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -10505,16 +10516,16 @@
         <v>503</v>
       </c>
     </row>
-    <row r="270" ht="15" spans="1:5">
-      <c r="A270" s="5"/>
-      <c r="B270" s="5" t="s">
+    <row r="270" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A270" s="7"/>
+      <c r="B270" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C270" s="5" t="s">
+      <c r="C270" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="D270" s="5"/>
-      <c r="E270" s="5" t="s">
+      <c r="D270" s="7"/>
+      <c r="E270" s="8" t="s">
         <v>505</v>
       </c>
     </row>
@@ -10719,11 +10730,11 @@
         <v>286</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>231</v>
+        <v>536</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" s="5" t="s">
-        <v>232</v>
+        <v>537</v>
       </c>
     </row>
     <row r="287" ht="15" spans="1:5">
@@ -10732,11 +10743,11 @@
         <v>286</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>536</v>
+        <v>231</v>
       </c>
       <c r="D287" s="5"/>
       <c r="E287" s="5" t="s">
-        <v>537</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288" ht="15" spans="1:5">
@@ -10781,7 +10792,7 @@
     <row r="291" ht="15" spans="1:5">
       <c r="A291" s="5"/>
       <c r="B291" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>544</v>
@@ -10797,11 +10808,11 @@
         <v>290</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="D292" s="5"/>
       <c r="E292" s="5" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
     </row>
     <row r="293" ht="15" spans="1:5">
@@ -10810,11 +10821,11 @@
         <v>290</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="D293" s="5"/>
       <c r="E293" s="5" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
     </row>
     <row r="294" ht="15" spans="1:5">
@@ -10879,7 +10890,7 @@
       </c>
       <c r="D298" s="5"/>
       <c r="E298" s="5" t="s">
-        <v>287</v>
+        <v>557</v>
       </c>
     </row>
     <row r="299" ht="15" spans="1:5">
@@ -10888,7 +10899,7 @@
         <v>290</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="5" t="s">
@@ -10901,11 +10912,11 @@
         <v>290</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D300" s="5"/>
       <c r="E300" s="5" t="s">
-        <v>559</v>
+        <v>287</v>
       </c>
     </row>
     <row r="301" ht="15" spans="1:5">
@@ -10914,11 +10925,11 @@
         <v>290</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>370</v>
+        <v>560</v>
       </c>
       <c r="D301" s="5"/>
       <c r="E301" s="5" t="s">
-        <v>371</v>
+        <v>561</v>
       </c>
     </row>
     <row r="302" ht="15" spans="1:5">
@@ -10927,11 +10938,11 @@
         <v>290</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>117</v>
+        <v>370</v>
       </c>
       <c r="D302" s="5"/>
       <c r="E302" s="5" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="303" ht="15" spans="1:5">
@@ -10940,11 +10951,11 @@
         <v>290</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>560</v>
+        <v>117</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="5" t="s">
-        <v>561</v>
+        <v>345</v>
       </c>
     </row>
     <row r="304" ht="15" spans="1:5">
@@ -10953,11 +10964,11 @@
         <v>290</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="5" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
     </row>
     <row r="305" ht="15" spans="1:5">
@@ -10966,11 +10977,11 @@
         <v>290</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>343</v>
+        <v>500</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="5" t="s">
-        <v>344</v>
+        <v>501</v>
       </c>
     </row>
     <row r="306" ht="15" spans="1:5">
@@ -10979,11 +10990,11 @@
         <v>290</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>562</v>
+        <v>343</v>
       </c>
       <c r="D306" s="5"/>
       <c r="E306" s="5" t="s">
-        <v>497</v>
+        <v>344</v>
       </c>
     </row>
     <row r="307" ht="15" spans="1:5">
@@ -10992,11 +11003,11 @@
         <v>290</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D307" s="5"/>
       <c r="E307" s="5" t="s">
-        <v>564</v>
+        <v>497</v>
       </c>
     </row>
     <row r="308" ht="15" spans="1:5">
@@ -11005,11 +11016,11 @@
         <v>290</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>470</v>
+        <v>565</v>
       </c>
       <c r="D308" s="5"/>
       <c r="E308" s="5" t="s">
-        <v>471</v>
+        <v>566</v>
       </c>
     </row>
     <row r="309" ht="15" spans="1:5">
@@ -11018,11 +11029,11 @@
         <v>290</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="310" ht="15" spans="1:5">
@@ -11031,11 +11042,11 @@
         <v>290</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>565</v>
+        <v>472</v>
       </c>
       <c r="D310" s="5"/>
       <c r="E310" s="5" t="s">
-        <v>566</v>
+        <v>473</v>
       </c>
     </row>
     <row r="311" ht="15" spans="1:5">
@@ -11057,11 +11068,11 @@
         <v>290</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>474</v>
+        <v>569</v>
       </c>
       <c r="D312" s="5"/>
       <c r="E312" s="5" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" ht="15" spans="1:5">
@@ -11070,11 +11081,11 @@
         <v>290</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="D313" s="5"/>
       <c r="E313" s="5" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
     </row>
     <row r="314" ht="15" spans="1:5">
@@ -11083,11 +11094,11 @@
         <v>290</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>569</v>
+        <v>444</v>
       </c>
       <c r="D314" s="5"/>
       <c r="E314" s="5" t="s">
-        <v>332</v>
+        <v>445</v>
       </c>
     </row>
     <row r="315" ht="15" spans="1:5">
@@ -11096,11 +11107,11 @@
         <v>290</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>476</v>
+        <v>571</v>
       </c>
       <c r="D315" s="5"/>
       <c r="E315" s="5" t="s">
-        <v>477</v>
+        <v>332</v>
       </c>
     </row>
     <row r="316" ht="15" spans="1:5">
@@ -11109,11 +11120,11 @@
         <v>290</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D316" s="5"/>
       <c r="E316" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="317" ht="15" spans="1:5">
@@ -11122,11 +11133,11 @@
         <v>290</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="318" ht="15" spans="1:5">
@@ -11135,11 +11146,11 @@
         <v>290</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="319" ht="15" spans="1:5">
@@ -11148,11 +11159,11 @@
         <v>290</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="320" ht="15" spans="1:5">
@@ -11161,11 +11172,11 @@
         <v>290</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="321" ht="15" spans="1:5">
@@ -11174,11 +11185,11 @@
         <v>290</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D321" s="5"/>
       <c r="E321" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="322" ht="15" spans="1:5">
@@ -11187,11 +11198,11 @@
         <v>290</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>570</v>
+        <v>488</v>
       </c>
       <c r="D322" s="5"/>
       <c r="E322" s="5" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
     </row>
     <row r="323" ht="15" spans="1:5">
@@ -11256,7 +11267,7 @@
       </c>
       <c r="D327" s="5"/>
       <c r="E327" s="5" t="s">
-        <v>130</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" ht="15" spans="1:5">
@@ -11265,11 +11276,11 @@
         <v>290</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D328" s="5"/>
       <c r="E328" s="5" t="s">
-        <v>582</v>
+        <v>130</v>
       </c>
     </row>
     <row r="329" ht="15" spans="1:5">
@@ -11295,7 +11306,7 @@
       </c>
       <c r="D330" s="5"/>
       <c r="E330" s="5" t="s">
-        <v>340</v>
+        <v>586</v>
       </c>
     </row>
     <row r="331" ht="15" spans="1:5">
@@ -11304,11 +11315,11 @@
         <v>290</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>321</v>
+        <v>587</v>
       </c>
       <c r="D331" s="5"/>
       <c r="E331" s="5" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
     <row r="332" ht="15" spans="1:5">
@@ -11317,11 +11328,11 @@
         <v>290</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>586</v>
+        <v>321</v>
       </c>
       <c r="D332" s="5"/>
       <c r="E332" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="333" ht="15" spans="1:5">
@@ -11330,11 +11341,11 @@
         <v>290</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="5" t="s">
-        <v>547</v>
+        <v>326</v>
       </c>
     </row>
     <row r="334" ht="15" spans="1:5">
@@ -11343,11 +11354,11 @@
         <v>290</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D334" s="5"/>
       <c r="E334" s="5" t="s">
-        <v>467</v>
+        <v>549</v>
       </c>
     </row>
     <row r="335" ht="15" spans="1:5">
@@ -11356,11 +11367,11 @@
         <v>290</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="5" t="s">
-        <v>545</v>
+        <v>467</v>
       </c>
     </row>
     <row r="336" ht="15" spans="1:5">
@@ -11369,11 +11380,11 @@
         <v>290</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D336" s="5"/>
       <c r="E336" s="5" t="s">
-        <v>179</v>
+        <v>547</v>
       </c>
     </row>
     <row r="337" ht="15" spans="1:5">
@@ -11382,11 +11393,11 @@
         <v>290</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D337" s="5"/>
       <c r="E337" s="5" t="s">
-        <v>403</v>
+        <v>179</v>
       </c>
     </row>
     <row r="338" ht="15" spans="1:5">
@@ -11395,11 +11406,11 @@
         <v>290</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D338" s="5"/>
       <c r="E338" s="5" t="s">
-        <v>593</v>
+        <v>403</v>
       </c>
     </row>
     <row r="339" ht="15" spans="1:5">
@@ -11447,11 +11458,11 @@
         <v>290</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>36</v>
+        <v>600</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="343" ht="15" spans="1:5">
@@ -11460,7 +11471,7 @@
         <v>290</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>601</v>
+        <v>36</v>
       </c>
       <c r="D343" s="5"/>
       <c r="E343" s="5" t="s">
@@ -11499,11 +11510,11 @@
         <v>290</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>311</v>
+        <v>607</v>
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="5" t="s">
-        <v>312</v>
+        <v>608</v>
       </c>
     </row>
     <row r="347" ht="15" spans="1:5">
@@ -11512,11 +11523,11 @@
         <v>290</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>607</v>
+        <v>311</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="5" t="s">
-        <v>561</v>
+        <v>312</v>
       </c>
     </row>
     <row r="348" ht="15" spans="1:5">
@@ -11525,11 +11536,11 @@
         <v>290</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D348" s="5"/>
       <c r="E348" s="5" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
     </row>
     <row r="349" ht="15" spans="1:5">
@@ -11538,11 +11549,11 @@
         <v>290</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>7</v>
+        <v>610</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="5" t="s">
-        <v>8</v>
+        <v>597</v>
       </c>
     </row>
     <row r="350" ht="15" spans="1:5">
@@ -11551,11 +11562,11 @@
         <v>290</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="351" ht="15" spans="1:5">
@@ -11564,11 +11575,11 @@
         <v>290</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>609</v>
+        <v>16</v>
       </c>
       <c r="D351" s="5"/>
       <c r="E351" s="5" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" ht="15" spans="1:5">
@@ -11577,11 +11588,11 @@
         <v>290</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D352" s="5"/>
       <c r="E352" s="5" t="s">
-        <v>611</v>
+        <v>199</v>
       </c>
     </row>
     <row r="353" ht="15" spans="1:5">
@@ -11600,14 +11611,14 @@
     <row r="354" ht="15" spans="1:5">
       <c r="A354" s="5"/>
       <c r="B354" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>117</v>
+        <v>614</v>
       </c>
       <c r="D354" s="5"/>
       <c r="E354" s="5" t="s">
-        <v>345</v>
+        <v>615</v>
       </c>
     </row>
     <row r="355" ht="15" spans="1:5">
@@ -11616,11 +11627,11 @@
         <v>294</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>614</v>
+        <v>117</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="5" t="s">
-        <v>615</v>
+        <v>345</v>
       </c>
     </row>
     <row r="356" ht="15" spans="1:5">
@@ -11642,11 +11653,11 @@
         <v>294</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>204</v>
+        <v>618</v>
       </c>
       <c r="D357" s="5"/>
       <c r="E357" s="5" t="s">
-        <v>205</v>
+        <v>619</v>
       </c>
     </row>
     <row r="358" ht="15" spans="1:5">
@@ -11655,11 +11666,11 @@
         <v>294</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="359" ht="15" spans="1:5">
@@ -11668,11 +11679,11 @@
         <v>294</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>618</v>
+        <v>202</v>
       </c>
       <c r="D359" s="5"/>
       <c r="E359" s="5" t="s">
-        <v>619</v>
+        <v>203</v>
       </c>
     </row>
     <row r="360" ht="15" spans="1:5">
@@ -11685,7 +11696,7 @@
       </c>
       <c r="D360" s="5"/>
       <c r="E360" s="5" t="s">
-        <v>326</v>
+        <v>621</v>
       </c>
     </row>
     <row r="361" ht="15" spans="1:5">
@@ -11694,11 +11705,11 @@
         <v>294</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>216</v>
+        <v>622</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="5" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
     </row>
     <row r="362" ht="15" spans="1:5">
@@ -11707,11 +11718,11 @@
         <v>294</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="363" ht="15" spans="1:5">
@@ -11720,11 +11731,11 @@
         <v>294</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>394</v>
+        <v>218</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="5" t="s">
-        <v>395</v>
+        <v>219</v>
       </c>
     </row>
     <row r="364" ht="15" spans="1:5">
@@ -11733,11 +11744,11 @@
         <v>294</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>621</v>
+        <v>394</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="5" t="s">
-        <v>622</v>
+        <v>395</v>
       </c>
     </row>
     <row r="365" ht="15" spans="1:5">
@@ -11844,29 +11855,29 @@
         <v>638</v>
       </c>
     </row>
-    <row r="373" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A373" s="7"/>
-      <c r="B373" s="7" t="s">
+    <row r="373" ht="15" spans="1:5">
+      <c r="A373" s="5"/>
+      <c r="B373" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C373" s="7" t="s">
+      <c r="C373" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="D373" s="7"/>
-      <c r="E373" s="8" t="s">
+      <c r="D373" s="5"/>
+      <c r="E373" s="5" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="374" ht="15" spans="1:5">
-      <c r="A374" s="5"/>
-      <c r="B374" s="5" t="s">
+    <row r="374" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A374" s="7"/>
+      <c r="B374" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C374" s="5" t="s">
+      <c r="C374" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="D374" s="5"/>
-      <c r="E374" s="5" t="s">
+      <c r="D374" s="7"/>
+      <c r="E374" s="8" t="s">
         <v>642</v>
       </c>
     </row>
@@ -11906,7 +11917,7 @@
       </c>
       <c r="D377" s="5"/>
       <c r="E377" s="5" t="s">
-        <v>130</v>
+        <v>648</v>
       </c>
     </row>
     <row r="378" ht="15" spans="1:5">
@@ -11915,11 +11926,11 @@
         <v>294</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D378" s="5"/>
       <c r="E378" s="5" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
     </row>
     <row r="379" ht="15" spans="1:5">
@@ -11928,11 +11939,11 @@
         <v>294</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="5" t="s">
-        <v>650</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" ht="15" spans="1:5">
@@ -11945,7 +11956,7 @@
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="5" t="s">
-        <v>187</v>
+        <v>652</v>
       </c>
     </row>
     <row r="381" ht="15" spans="1:5">
@@ -11954,11 +11965,11 @@
         <v>294</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>172</v>
+        <v>653</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="5" t="s">
-        <v>652</v>
+        <v>187</v>
       </c>
     </row>
     <row r="382" ht="15" spans="1:5">
@@ -11967,7 +11978,7 @@
         <v>294</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>653</v>
+        <v>172</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="5" t="s">
@@ -11987,29 +11998,29 @@
         <v>656</v>
       </c>
     </row>
-    <row r="384" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A384" s="7"/>
-      <c r="B384" s="7" t="s">
+    <row r="384" ht="15" spans="1:5">
+      <c r="A384" s="5"/>
+      <c r="B384" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C384" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D384" s="7"/>
-      <c r="E384" s="8" t="s">
+      <c r="D384" s="5"/>
+      <c r="E384" s="5" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="385" ht="15" spans="1:5">
-      <c r="A385" s="5"/>
-      <c r="B385" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C385" s="5" t="s">
+    <row r="385" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A385" s="7"/>
+      <c r="B385" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C385" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="D385" s="5"/>
-      <c r="E385" s="5" t="s">
+      <c r="D385" s="7"/>
+      <c r="E385" s="8" t="s">
         <v>660</v>
       </c>
     </row>
@@ -12032,11 +12043,11 @@
         <v>298</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>7</v>
+        <v>663</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="5" t="s">
-        <v>8</v>
+        <v>664</v>
       </c>
     </row>
     <row r="388" ht="15" spans="1:5">
@@ -12045,11 +12056,11 @@
         <v>298</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" ht="15" spans="1:5">
@@ -12057,12 +12068,12 @@
       <c r="B389" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C389" s="9" t="s">
-        <v>512</v>
+      <c r="C389" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="5" t="s">
-        <v>663</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" ht="15" spans="1:5">
@@ -12070,8 +12081,8 @@
       <c r="B390" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C390" s="5" t="s">
-        <v>664</v>
+      <c r="C390" s="9" t="s">
+        <v>514</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="5" t="s">
@@ -12097,11 +12108,11 @@
         <v>298</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>221</v>
+        <v>668</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="5" t="s">
-        <v>222</v>
+        <v>669</v>
       </c>
     </row>
     <row r="393" ht="15" spans="1:5">
@@ -12110,11 +12121,11 @@
         <v>298</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>668</v>
+        <v>221</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="5" t="s">
-        <v>669</v>
+        <v>222</v>
       </c>
     </row>
     <row r="394" ht="15" spans="1:5">
@@ -12133,14 +12144,14 @@
     <row r="395" ht="15" spans="1:5">
       <c r="A395" s="5"/>
       <c r="B395" s="5" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>204</v>
+        <v>672</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="5" t="s">
-        <v>205</v>
+        <v>673</v>
       </c>
     </row>
     <row r="396" ht="15" spans="1:5">
@@ -12149,11 +12160,11 @@
         <v>170</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="397" ht="15" spans="1:5">
@@ -12162,11 +12173,11 @@
         <v>170</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>618</v>
+        <v>202</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="5" t="s">
-        <v>619</v>
+        <v>203</v>
       </c>
     </row>
     <row r="398" ht="15" spans="1:5">
@@ -12175,37 +12186,37 @@
         <v>170</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>214</v>
+        <v>620</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="399" ht="15" spans="1:5">
+      <c r="A399" s="5"/>
+      <c r="B399" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="399" s="1" customFormat="1" ht="15" spans="1:5">
-      <c r="A399" s="7"/>
-      <c r="B399" s="7" t="s">
+    <row r="400" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A400" s="7"/>
+      <c r="B400" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C399" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="D399" s="7"/>
-      <c r="E399" s="8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="400" ht="15" spans="1:5">
-      <c r="A400" s="5"/>
-      <c r="B400" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C400" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D400" s="5"/>
-      <c r="E400" s="5" t="s">
-        <v>173</v>
+      <c r="C400" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D400" s="7"/>
+      <c r="E400" s="8" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="401" ht="15" spans="1:5">
@@ -12214,11 +12225,11 @@
         <v>170</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>674</v>
+        <v>172</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="5" t="s">
-        <v>675</v>
+        <v>173</v>
       </c>
     </row>
     <row r="402" ht="15" spans="1:5">
@@ -12240,11 +12251,11 @@
         <v>170</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>7</v>
+        <v>678</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="5" t="s">
-        <v>8</v>
+        <v>679</v>
       </c>
     </row>
     <row r="404" ht="15" spans="1:5">
@@ -12253,11 +12264,11 @@
         <v>170</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" ht="15" spans="1:5">
@@ -12266,11 +12277,11 @@
         <v>170</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>668</v>
+        <v>16</v>
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="5" t="s">
-        <v>669</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406" ht="15" spans="1:5">
@@ -12279,11 +12290,11 @@
         <v>170</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="5" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="407" ht="15" spans="1:5">
@@ -12302,14 +12313,14 @@
     <row r="408" ht="15" spans="1:5">
       <c r="A408" s="5"/>
       <c r="B408" s="5" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>270</v>
+        <v>682</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="5" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="409" ht="15" spans="1:5">
@@ -12318,11 +12329,11 @@
         <v>300</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="5" t="s">
-        <v>219</v>
+        <v>684</v>
       </c>
     </row>
     <row r="410" ht="15" spans="1:5">
@@ -12331,11 +12342,11 @@
         <v>300</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>683</v>
+        <v>218</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="5" t="s">
-        <v>684</v>
+        <v>219</v>
       </c>
     </row>
     <row r="411" ht="15" spans="1:5">
@@ -12357,11 +12368,11 @@
         <v>300</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>221</v>
+        <v>687</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="5" t="s">
-        <v>222</v>
+        <v>688</v>
       </c>
     </row>
     <row r="413" ht="15" spans="1:5">
@@ -12370,11 +12381,11 @@
         <v>300</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>647</v>
+        <v>221</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="5" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
     </row>
     <row r="414" ht="15" spans="1:5">
@@ -12383,11 +12394,11 @@
         <v>300</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="5" t="s">
-        <v>688</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" ht="15" spans="1:5">
@@ -12396,11 +12407,11 @@
         <v>300</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>126</v>
+        <v>689</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="5" t="s">
-        <v>535</v>
+        <v>690</v>
       </c>
     </row>
     <row r="416" ht="15" spans="1:5">
@@ -12409,11 +12420,11 @@
         <v>300</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>689</v>
+        <v>126</v>
       </c>
       <c r="D416" s="5"/>
       <c r="E416" s="5" t="s">
-        <v>690</v>
+        <v>537</v>
       </c>
     </row>
     <row r="417" ht="15" spans="1:5">
@@ -12497,7 +12508,7 @@
     <row r="423" ht="15" spans="1:5">
       <c r="A423" s="5"/>
       <c r="B423" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>703</v>
@@ -12552,11 +12563,11 @@
         <v>296</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>305</v>
+        <v>711</v>
       </c>
       <c r="D427" s="5"/>
       <c r="E427" s="5" t="s">
-        <v>306</v>
+        <v>712</v>
       </c>
     </row>
     <row r="428" ht="15" spans="1:5">
@@ -12565,11 +12576,11 @@
         <v>296</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>672</v>
+        <v>305</v>
       </c>
       <c r="D428" s="5"/>
       <c r="E428" s="5" t="s">
-        <v>711</v>
+        <v>306</v>
       </c>
     </row>
     <row r="429" ht="15" spans="1:5">
@@ -12578,7 +12589,7 @@
         <v>296</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="D429" s="5"/>
       <c r="E429" s="5" t="s">
@@ -12591,11 +12602,11 @@
         <v>296</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>360</v>
+        <v>714</v>
       </c>
       <c r="D430" s="5"/>
       <c r="E430" s="5" t="s">
-        <v>361</v>
+        <v>715</v>
       </c>
     </row>
     <row r="431" ht="15" spans="1:5">
@@ -12604,11 +12615,11 @@
         <v>296</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D431" s="5"/>
       <c r="E431" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="432" ht="15" spans="1:5">
@@ -12617,11 +12628,11 @@
         <v>296</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>714</v>
+        <v>362</v>
       </c>
       <c r="D432" s="5"/>
       <c r="E432" s="5" t="s">
-        <v>715</v>
+        <v>363</v>
       </c>
     </row>
     <row r="433" ht="15" spans="1:5">
@@ -12721,11 +12732,11 @@
         <v>296</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>283</v>
+        <v>730</v>
       </c>
       <c r="D440" s="5"/>
       <c r="E440" s="5" t="s">
-        <v>284</v>
+        <v>731</v>
       </c>
     </row>
     <row r="441" ht="15" spans="1:5">
@@ -12734,11 +12745,11 @@
         <v>296</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>730</v>
+        <v>283</v>
       </c>
       <c r="D441" s="5"/>
       <c r="E441" s="5" t="s">
-        <v>731</v>
+        <v>284</v>
       </c>
     </row>
     <row r="442" ht="15" spans="1:5">
@@ -12812,11 +12823,11 @@
         <v>296</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>422</v>
+        <v>742</v>
       </c>
       <c r="D447" s="5"/>
       <c r="E447" s="5" t="s">
-        <v>423</v>
+        <v>743</v>
       </c>
     </row>
     <row r="448" ht="15" spans="1:5">
@@ -12825,11 +12836,11 @@
         <v>296</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>742</v>
+        <v>422</v>
       </c>
       <c r="D448" s="5"/>
       <c r="E448" s="5" t="s">
-        <v>743</v>
+        <v>423</v>
       </c>
     </row>
     <row r="449" ht="15" spans="1:5">
@@ -13069,20 +13080,20 @@
     <row r="467" ht="15" spans="1:5">
       <c r="A467" s="5"/>
       <c r="B467" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C467" s="5" t="s">
         <v>780</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>781</v>
       </c>
       <c r="D467" s="5"/>
       <c r="E467" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="468" ht="15" spans="1:5">
       <c r="A468" s="5"/>
       <c r="B468" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>783</v>
@@ -13095,7 +13106,7 @@
     <row r="469" ht="15" spans="1:5">
       <c r="A469" s="5"/>
       <c r="B469" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>785</v>
@@ -13103,6 +13114,19 @@
       <c r="D469" s="5"/>
       <c r="E469" s="5" t="s">
         <v>786</v>
+      </c>
+    </row>
+    <row r="470" ht="15" spans="1:5">
+      <c r="A470" s="5"/>
+      <c r="B470" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
